--- a/Output_testing/R1_201907/Country/HKD/MN/SERBIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SERBIA_201907_HKD_MN.xlsx
@@ -544,17 +544,25 @@
       <c r="C7" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.247835</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.199951</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.009285</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.003682</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-19.32091915992496</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/SERBIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SERBIA_201907_HKD_MN.xlsx
@@ -818,136 +818,437 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>390.174431</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>64.88236350963261</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>508.801906</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>62.7300972310029</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>695.220342</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>64.03927014114402</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>332.193419</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>58.71309633594088</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-17.38039267952299</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>37.965939</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.313381040549369</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>76.77900699999999</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>9.46607022814465</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>66.522006</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>6.127583523102382</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>60.868823</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.75818142157215</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>43.16579780806973</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>6.680431</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.110893277737665</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>10.650019</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.313038963698435</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>18.121913</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.669275209558396</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>24.526006</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.334817219885575</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>157.1847929854821</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.06187010282945454</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>7.404239</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.9128673200991974</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>28.779504</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.650984615729404</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>24.36792</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.306876514210838</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>14.67537627628424</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>11.164723</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.856589152481793</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>25.817737</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.183064240121894</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>32.832737</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.024342625199155</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>18.749829</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.313914284254433</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>2.816636728016864</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>48.426798</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>8.052924184167132</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>81.477137</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>10.04530184702914</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>74.358203</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.849404083068422</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>18.332369</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.240130856303978</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-67.11116353668076</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>16.832108</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.799022342623459</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>18.041069</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.224280214314355</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>20.915466</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.926599520158909</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>12.470543</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.20408999890661</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>12.15214002956479</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>14.088994</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.342868106067752</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>4.736625</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5839776606434315</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>16.092053</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.482297434260931</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>8.858751</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.565728491686684</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-19.69686641276662</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.05472742012549936</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.514495</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.1867218213720051</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>7.028541</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.6474244330973653</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>6.483978</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.146002308233931</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>19.81207696529243</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1.061154</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.1764599986504515</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.011851</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.2480407548714851</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>6.272381</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.5777717897776631</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>5.93722</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.049366272447664</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>294.412399117006</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>74.260941</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>12.34890086513481</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>73.862866</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>9.106539718702505</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>119.472509</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>11.00504662490336</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>53.002149</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.367796296557255</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-23.31724454497741</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -979,136 +1280,617 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>10.78419109488167</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>10.64060694870243</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-58.06378132118451</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>89.21580890511832</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>89.35939305129756</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EGGS, BIRDS', AND EGG YOLKS, FRESH, DRIED OR OTHERWISE PRESERVED, SWEETENED OR NOT; EGG ALBUMIN</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT JUICES AND VEGETABLE JUICES, UNFERMENTED AND NOT CONTAINING ADDED SPIRIT</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SUGARS, MOLASSES, AND HONEY</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CHOCOLATE AND OTHER FOOD PREPARATIONS CONTAINING COCOA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1140,136 +1922,437 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>390.174431</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>64.90911427288233</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>508.801906</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>62.74556521975047</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>695.220342</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>64.03981785773787</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>332.193419</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>58.71347842583784</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-17.38039267952299</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>37.965939</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.315984024663779</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>76.77900699999999</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.468404371948596</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>66.522006</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>6.127635931244582</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>60.868823</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>10.75825143308044</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>43.16579780806973</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>6.680431</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.111351295008631</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>10.650019</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.313362732874829</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>18.121913</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.669289486575139</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>24.526006</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.334845429773457</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>157.1847929854821</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.0618956116485465</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>7.404239</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.9130924149429582</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>28.779504</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.651007289133721</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>24.36792</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.306904542267715</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>14.67537627628424</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>11.164723</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.857354617458461</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>25.817737</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.183849120171859</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>32.832737</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.024368491868743</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>18.749829</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.313935850365683</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>2.816636728016864</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>48.426798</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>8.056244375613094</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>81.477137</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>10.04777881777834</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>74.358203</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>6.849462664814688</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>18.332369</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.240151942251446</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-67.11116353668076</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>16.832108</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.800176369387714</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>18.041069</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.224828677378262</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>20.915466</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.92661599802514</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>12.470543</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.204104342563701</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>12.15214002956479</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>14.088994</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.343834062094022</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>4.736625</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5841216578677686</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>16.092053</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.482310112089707</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>8.858751</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.565738681049456</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-19.69686641276662</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.05474998404240766</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.514495</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.1867678632428039</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>7.028541</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.6474299704044663</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>6.483978</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.146009766125461</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>19.81207696529243</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.061154</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.1765327524681549</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.011851</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.2481019167662477</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>6.272381</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.5777767313579784</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>5.93722</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.049373101456453</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>294.412399117006</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>74.01310599999999</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>12.31276263473286</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>73.662915</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>9.084127207277866</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>119.463224</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>11.00428546674795</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>52.998467</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.367206485228349</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-23.31283020840718</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1301,136 +2384,467 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>9.288885000000001</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>0.7297151768174948</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>15.097585</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>3.072170562612142</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>8.914087</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>9.253937483940204</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>6.44525</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>22.24931159261196</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>62.2671198388721</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>0.570076</v>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1.41168</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>0.2872593027181704</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>4.967441</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>5.156825199166377</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>6.127316</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>21.15178820222593</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>116.1522717218831</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1234.96303</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>97.01608597797464</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>442.570762</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>90.05763947606351</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>43.40959</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>45.06458508465038</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>5.193663</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>17.92877334378337</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-85.50821703090307</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>3.399241</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.2670371898629682</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>5.876296</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.195753068348049</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>16.487465</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>17.11605129932568</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>2.673933</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>9.230544741440234</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>77.95824731358837</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.113101</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.155538090138825</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2.521955</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>8.705909408874083</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>221.2382797523288</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>2.380556</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.471314942407311</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.042452</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>7.0506420947137</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>79.28685605538578</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>2.495008</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.1960025561605148</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>2.226112</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.4529860739633286</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>2.401977</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.493552620236064</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1.068269</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.687715735732203</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>92.40428586094546</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>12.276597</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.9644235180618691</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>12.450016</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.533423236845507</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>6.203798</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>6.440318436985557</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.671564432197499</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-89.97692862113634</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.5152162979329351</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.580772120929932</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>43.95657941892122</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>0.91955</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.07223790485537578</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0.793394</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.1614458001960643</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>0.597069</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.6198323170503826</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.492448023895904</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-27.59011102569385</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>8.90727</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>0.6997363088262117</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>10.762838</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>2.190103521441564</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>9.356125</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>9.712828228166277</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>1.52099</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>5.250530303595183</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-75.05244597531473</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
